--- a/ig_data.xlsx
+++ b/ig_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihzar\Downloads\sakola_kembara\sakola-kembara-content-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13CA9D9-451B-45D2-83C2-F19F7FBFAE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90AA18A-4B49-4F3A-912D-074F970541A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="171">
   <si>
     <t>Description</t>
   </si>
@@ -681,13 +681,22 @@
     <t>https://www.instagram.com/reel/DGVXUwePY_R/</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>condro</t>
-  </si>
-  <si>
-    <t>jema</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Ridho</t>
+  </si>
+  <si>
+    <t>Condro</t>
+  </si>
+  <si>
+    <t>Ratu</t>
+  </si>
+  <si>
+    <t>Jema</t>
+  </si>
+  <si>
+    <t>Yayak</t>
   </si>
 </sst>
 </file>
@@ -1185,20 +1194,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:M25">
-  <autoFilter ref="A1:M25" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:N25">
+  <autoFilter ref="A1:N25" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N25">
     <sortCondition descending="1" ref="E1:E25"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Description"/>
-    <tableColumn id="15" xr3:uid="{8A0E724C-B87B-4718-8D46-79F18320C551}" name="talent">
-      <calculatedColumnFormula>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{AAA0039B-739C-4A44-A188-F3FFCEBDE6F7}" name="talent"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Duration (sec)"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Publish time"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Permalink"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Post type"/>
+    <tableColumn id="6" xr3:uid="{5D4FEBC2-AF28-4B98-AB2B-F25E6AAA98A2}" name="Avg Watch Time (Seconds)">
+      <calculatedColumnFormula>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Views"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Reach"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Likes"/>
@@ -10365,10 +10375,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10376,7 +10386,7 @@
     <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10396,34 +10406,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B2" t="s">
+        <v>165</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10437,29 +10449,33 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H2">
         <v>417</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>198</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>35</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -10479,19 +10495,19 @@
         <v>20</v>
       </c>
       <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
         <v>1197</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>782</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>39</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -10499,13 +10515,16 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -10520,33 +10539,36 @@
         <v>20</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>2973</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2101</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>51</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -10561,33 +10583,36 @@
         <v>20</v>
       </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
         <v>3920</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2418</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>152</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -10602,33 +10627,36 @@
         <v>20</v>
       </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>4242</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2535</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>105</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -10643,34 +10671,36 @@
         <v>20</v>
       </c>
       <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
         <v>4242</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2535</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>105</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>144</v>
       </c>
-      <c r="B8" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B8" t="s">
+        <v>165</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -10684,34 +10714,38 @@
       <c r="F8" t="s">
         <v>146</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H8">
         <v>930</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>583</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>33</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -10726,33 +10760,36 @@
         <v>20</v>
       </c>
       <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
         <v>3724</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2477</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>181</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -10767,34 +10804,36 @@
         <v>20</v>
       </c>
       <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
         <v>14718</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10016</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2122</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>61</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>23</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>100</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1">
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B11" t="s">
+        <v>165</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10808,35 +10847,38 @@
       <c r="F11" t="s">
         <v>146</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H11">
         <v>607</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>387</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>21</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>153</v>
       </c>
-      <c r="B12" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B12" t="s">
+        <v>165</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10850,34 +10892,38 @@
       <c r="F12" t="s">
         <v>146</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H12">
         <v>538</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>331</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>22</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1">
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <v>71</v>
@@ -10892,28 +10938,31 @@
         <v>20</v>
       </c>
       <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <v>5338</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2734</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>196</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>22</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -10933,33 +10982,36 @@
         <v>20</v>
       </c>
       <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
         <v>2764</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1835</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>52</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C15">
         <v>58</v>
@@ -10974,34 +11026,36 @@
         <v>20</v>
       </c>
       <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
         <v>4041</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3028</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>97</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B16" t="s">
+        <v>165</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11015,34 +11069,38 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H16">
         <v>2172</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1472</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>96</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>16</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -11057,34 +11115,36 @@
         <v>20</v>
       </c>
       <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
         <v>4661</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3225</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>182</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>15</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B18" t="s">
+        <v>165</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11098,34 +11158,38 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H18">
         <v>763</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>380</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>45</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -11140,34 +11204,36 @@
         <v>20</v>
       </c>
       <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
         <v>306476</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>190437</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>25726</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4884</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>120</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>689</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B20" t="s">
+        <v>165</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -11181,35 +11247,38 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H20">
         <v>1128</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>580</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>65</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>161</v>
       </c>
-      <c r="B21" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B21" t="s">
+        <v>165</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11223,34 +11292,38 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H21">
         <v>1642</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>883</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>40</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -11265,34 +11338,36 @@
         <v>20</v>
       </c>
       <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
         <v>3561</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2563</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>270</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>8</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>13</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B23" t="s">
+        <v>165</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11306,17 +11381,18 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H23">
         <v>1013</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>565</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>25</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -11327,14 +11403,16 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="str">
-        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"other")</f>
-        <v>other</v>
+      <c r="B24" t="s">
+        <v>165</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11348,41 +11426,48 @@
       <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="str">
+        <f>IF(Table_3[[#This Row],[Post type]]="IG reel",,"None")</f>
+        <v>None</v>
+      </c>
+      <c r="H24">
         <v>1859</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1081</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>60</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ig_data.xlsx
+++ b/ig_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihzar\Downloads\sakola_kembara\sakola-kembara-content-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90AA18A-4B49-4F3A-912D-074F970541A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684E4AD-5782-404A-BA37-2AF2B873CFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10377,8 +10377,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
